--- a/input.xlsx
+++ b/input.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">SKU</t>
+    <t xml:space="preserve">upc</t>
   </si>
 </sst>
 </file>
@@ -131,13 +131,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A1001"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
@@ -146,6 +146,11 @@
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>631514612863</v>
       </c>
     </row>
   </sheetData>
